--- a/data/Revenue_Cloud_Complete_Upload_Template_FINAL.xlsx
+++ b/data/Revenue_Cloud_Complete_Upload_Template_FINAL.xlsx
@@ -6859,7 +6859,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G5"/>
+  <dimension ref="A1:G4"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -6978,11 +6978,19 @@
     <row r="4">
       <c r="A4" s="3" t="inlineStr">
         <is>
-          <t>0ZSdp00000007nzGAA</t>
-        </is>
-      </c>
-      <c r="B4" s="3" t="inlineStr"/>
-      <c r="C4" s="3" t="inlineStr"/>
+          <t>0ZSdp0000000ASPGA2</t>
+        </is>
+      </c>
+      <c r="B4" s="3" t="inlineStr">
+        <is>
+          <t>Corp</t>
+        </is>
+      </c>
+      <c r="C4" s="3" t="inlineStr">
+        <is>
+          <t>Corporate Products</t>
+        </is>
+      </c>
       <c r="D4" s="3" t="inlineStr">
         <is>
           <t>Sales</t>
@@ -6991,33 +6999,6 @@
       <c r="E4" s="3" t="inlineStr"/>
       <c r="F4" s="3" t="inlineStr"/>
       <c r="G4" s="3" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="3" t="inlineStr">
-        <is>
-          <t>0ZSdp0000000ASPGA2</t>
-        </is>
-      </c>
-      <c r="B5" s="3" t="inlineStr">
-        <is>
-          <t>Corp</t>
-        </is>
-      </c>
-      <c r="C5" s="3" t="inlineStr">
-        <is>
-          <t>Corporate Products</t>
-        </is>
-      </c>
-      <c r="D5" s="3" t="inlineStr">
-        <is>
-          <t>Sales</t>
-        </is>
-      </c>
-      <c r="E5" s="3" t="inlineStr"/>
-      <c r="F5" s="3" t="inlineStr"/>
-      <c r="G5" s="3" t="n">
         <v>0</v>
       </c>
     </row>
@@ -7634,7 +7615,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E6"/>
+  <dimension ref="A1:E5"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -7775,25 +7756,6 @@
       <c r="E5" s="3" t="n">
         <v>2</v>
       </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="3" t="inlineStr">
-        <is>
-          <t>0ZGdp00000007azGAA</t>
-        </is>
-      </c>
-      <c r="B6" s="3" t="inlineStr">
-        <is>
-          <t>AB Test Category</t>
-        </is>
-      </c>
-      <c r="C6" s="3" t="inlineStr"/>
-      <c r="D6" s="3" t="inlineStr">
-        <is>
-          <t>0ZSdp00000007nzGAA</t>
-        </is>
-      </c>
-      <c r="E6" s="3" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -13409,10 +13371,8 @@
           <t>Activated</t>
         </is>
       </c>
-      <c r="F2" s="3" t="inlineStr">
-        <is>
-          <t>00000101</t>
-        </is>
+      <c r="F2" s="3" t="n">
+        <v>101</v>
       </c>
       <c r="G2" s="3" t="inlineStr">
         <is>
@@ -13442,10 +13402,8 @@
           <t>GA</t>
         </is>
       </c>
-      <c r="M2" s="3" t="inlineStr">
-        <is>
-          <t>30326</t>
-        </is>
+      <c r="M2" s="3" t="n">
+        <v>30326</v>
       </c>
       <c r="N2" s="3" t="inlineStr">
         <is>
@@ -13467,10 +13425,8 @@
           <t>GA</t>
         </is>
       </c>
-      <c r="R2" s="3" t="inlineStr">
-        <is>
-          <t>30326</t>
-        </is>
+      <c r="R2" s="3" t="n">
+        <v>30326</v>
       </c>
       <c r="S2" s="3" t="inlineStr">
         <is>
@@ -13506,7 +13462,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B28"/>
+  <dimension ref="A1:B27"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -13783,20 +13739,10 @@
     <row r="27">
       <c r="A27" s="3" t="inlineStr">
         <is>
-          <t>0ZRdp0000000AQnGAM</t>
+          <t>0ZRdp0000000CVpGAM</t>
         </is>
       </c>
       <c r="B27" s="3" t="n">
-        <v>163</v>
-      </c>
-    </row>
-    <row r="28">
-      <c r="A28" s="3" t="inlineStr">
-        <is>
-          <t>0ZRdp0000000CVpGAM</t>
-        </is>
-      </c>
-      <c r="B28" s="3" t="n">
         <v>165</v>
       </c>
     </row>
@@ -17708,7 +17654,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D9"/>
+  <dimension ref="A1:D7"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -17813,17 +17759,17 @@
     <row r="5">
       <c r="A5" s="3" t="inlineStr">
         <is>
-          <t>11Bdp000000nBLjEAM</t>
+          <t>11Bdp000000nBLkEAM</t>
         </is>
       </c>
       <c r="B5" s="3" t="inlineStr">
         <is>
-          <t>IBM I Security</t>
+          <t>Managed Security Services</t>
         </is>
       </c>
       <c r="C5" s="3" t="inlineStr">
         <is>
-          <t>IIS</t>
+          <t>MSS</t>
         </is>
       </c>
       <c r="D5" s="3" t="inlineStr">
@@ -17835,86 +17781,42 @@
     <row r="6">
       <c r="A6" s="3" t="inlineStr">
         <is>
-          <t>11Bdp000000nBLkEAM</t>
+          <t>11Bdp000000nBLlEAM</t>
         </is>
       </c>
       <c r="B6" s="3" t="inlineStr">
         <is>
-          <t>Managed Security Services</t>
+          <t>Offensive Security Solutions</t>
         </is>
       </c>
       <c r="C6" s="3" t="inlineStr">
         <is>
-          <t>MSS</t>
+          <t>OSPM</t>
         </is>
       </c>
       <c r="D6" s="3" t="inlineStr">
         <is>
-          <t>Inactive</t>
+          <t>Active</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="3" t="inlineStr">
         <is>
-          <t>11Bdp000000nBLlEAM</t>
+          <t>11Bdp000000sVd7EAE</t>
         </is>
       </c>
       <c r="B7" s="3" t="inlineStr">
         <is>
-          <t>Offensive Security Solutions</t>
+          <t>Human Risk Management</t>
         </is>
       </c>
       <c r="C7" s="3" t="inlineStr">
         <is>
-          <t>OSPM</t>
+          <t>HMR</t>
         </is>
       </c>
       <c r="D7" s="3" t="inlineStr">
-        <is>
-          <t>Active</t>
-        </is>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" s="3" t="inlineStr">
-        <is>
-          <t>11Bdp000000nBLmEAM</t>
-        </is>
-      </c>
-      <c r="B8" s="3" t="inlineStr">
-        <is>
-          <t>Secure File Transfer</t>
-        </is>
-      </c>
-      <c r="C8" s="3" t="inlineStr">
-        <is>
-          <t>SFT</t>
-        </is>
-      </c>
-      <c r="D8" s="3" t="inlineStr">
-        <is>
-          <t>Inactive</t>
-        </is>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" s="3" t="inlineStr">
-        <is>
-          <t>11Bdp000000sVd7EAE</t>
-        </is>
-      </c>
-      <c r="B9" s="3" t="inlineStr">
-        <is>
-          <t>Human Risk Management</t>
-        </is>
-      </c>
-      <c r="C9" s="3" t="inlineStr">
-        <is>
-          <t>HMR</t>
-        </is>
-      </c>
-      <c r="D9" s="3" t="inlineStr">
         <is>
           <t>Active</t>
         </is>
